--- a/요구사항_정의서/케어해달라냥_Project_요구명세서.xlsx
+++ b/요구사항_정의서/케어해달라냥_Project_요구명세서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\1차프로젝트\carecat\요구사항_정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E28950-7FC5-4F05-8774-257FE3CB3325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A9D8A8-8074-4139-9E59-8D1FDAF87611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="139">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
   </si>
   <si>
     <t>LIST01-PRINT01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST01-REDIRECT02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -176,17 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입, 로그인
- 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- 각 버튼을 클릭시 회원가입, 로그인 페이지로 이동
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LOGIN01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,10 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PROPIE01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,15 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PROPIE01-REDIRECT01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 버튼을 누를때 
-페이지 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내정보 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,25 +303,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모든 할일 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LSIT01-EXECUTE01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- 모든 할일을 출력
-- 정렬기준
-  &gt; 1. 수행 미완료 -&gt; 완료 순
-  &gt; 2. 기한일자 오름차순
-- 작성폼 출력
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 버튼 페이지로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -362,11 +316,6 @@
     <t xml:space="preserve">- 캘린더, 내정보 버튼
 - 날짜
 - 내용 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 할일 작성
-- 작성된 할일옆에 삭제와 수정 버튼출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -460,18 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 사이트 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1.가입페이지1에서 선택한 동물의 사진을 5개 출력
-2.고객이 입력하는 폼 출력
-3.전송버튼
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 확인 버튼으로 제어 가능하게 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,26 +416,6 @@
     <t xml:space="preserve">
 전송 버튼을 누를경우 내정보 페이지로 이동
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- 선택한 고양이 사진 출력
-- 행복지수 출력
-- 반려묘 정보 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- 반려묘 사진
-- 반려묘 이름, 성별 ,생년월일, 몸무게
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- 동물 사진 5장
-- 이름, 성별 ,생년월일, 몸무게</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -553,23 +470,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 할일 페이지에서 수정버튼 클릭 시 수정 처리
-2. 할일 페이지 안에서 페이지 이동없이 수행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 - 확인 버튼으로 제어 가능하게 구현
 - 해당 LIST 정보를 DB에서 소프트 삭제
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 주의 메세지는 아래 참조
-  &gt;정보를 완전히 삭제합니다.
-    동의 하시면 버튼을 눌러 주세요.
-2. 버튼으로 제어 가능하게 구현
-3. 해당 LIST 정보를 DB에서 소프트 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -608,38 +512,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>&gt; 가입페이지 출력</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-- 버튼에 맞는 페이지로 이동
-(캘린더, 할일, </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>쇼핑목록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -693,12 +565,325 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>이름, 성별 ,생년월일, 몸무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST01-REDIRECT02</t>
+  </si>
+  <si>
+    <t>LIST01-REDIRECT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSIT01-EXECUTE02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSIT01-EXECUTE03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+- 각 버튼을 클릭시 회원가입, 로그인 페이지로 이동
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. 신규이용자일 경우 : start버튼 클릭시가입페이지로 이동
+2. 기존이용자일 경우 : start버튼 클릭시 내정보 페이지로 이동 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">회원가입, 로그인
+ 페이지로 이동
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>버튼클릭시 페이지 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROPIE01-REDIRECT01</t>
+  </si>
+  <si>
+    <t>PROPIE01-REDIRECT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROPIE01-REDIRECT03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더 버튼을 누를때 
+캘린더 페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 버튼을 누를때 
+할일 페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+캘린더 페이지로 이동
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>캘린더, 할일,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쇼핑목록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 버튼을 누르면 내정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 반려묘 사진
+2. 반려묘 이름, 성별 ,생년월일, 몸무게
+3. 완료된 체크를 백분율해서 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 가입페이지에서 선택한 동물의 사진을 5개 출력
+2. 고객이 입력하는 폼 출력
+3. 전송버튼
+4. 상단에 '비슷한 아이를 선택해주세요' 문구 출력
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 할일 출력
+스크롤 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 할일 페이지에서 수정버튼 클릭 시 '완료'와 '취소' 버튼 활성화
+2. 완료버튼 클릭 시 수정된 데이터 출력
+3. 취소버튼 클릭 시 기존 데이터 출력
+4. 할일 페이지 안에서 페이지 이동없이 수행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE01-REDIRECT01</t>
+  </si>
+  <si>
+    <t>LIST01-REDIRECT03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보 버튼 클릭 시 내정보 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 버튼 클릭 시 할일 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더 버튼 클릭 시 
+캘린더 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-캘린더 페이지로 이동
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 수정 버튼 클릭 시 '완료'와 '취소' 버튼 활성화
+2. 완료버튼 클릭 시 수정된 데이터 출력
+3. 취소버튼 클릭 시 기존 데이터 출력
+4. 내정보 페이지 안에서 페이지 이동없이 수행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROPIE01-REDIRECT04</t>
+  </si>
+  <si>
+    <t>PROPIE01-REDIRECT04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반려동물 추가 버튼 클릭시 가입페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 타이틀 클릭시 시작페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 선택한 고양이 사진 출력
+2. 행복지수 출력
+3. 반려묘 정보(이름, 성별, 생년월일, 몸무게) 출력
+4. 생일 디데이 출력
+5. 상단에 '집사 반가워' 문구 출력
+6. 내정보 수정버튼 출력
+7. 반려동물 추가 버튼 출력
+8. 추가 반려동물 있을때 슬라이딩으로 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향키 버튼으로 반려동물 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향키로 반려동물 목록 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 작성
+작성된 할일옆에 삭제와 수정 버튼출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. 모든 할일을 출력
+2. 정렬기준
+ ㄱ. 수행 미완료 &gt; 완료 순
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ㄴ. 기한일자 오름차순</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. 작성폼 출력
+4. 할일 개수가 5개 초과시 스크롤 생성
+5. 할일 목록 체크 되었을때 회색글씨로 출력
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 할일 페이지에서 수정버튼 클릭 시 '동의'와 '취소' 버튼 활성화
+2. 할일 페이지 안에서 페이지 이동없이 수행
+3. 해당 LIST 정보를 DB에서 소프트 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,6 +957,13 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -916,7 +1108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -983,25 +1175,7 @@
     <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1010,9 +1184,6 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1025,9 +1196,6 @@
     <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1049,9 +1217,6 @@
     <xf numFmtId="49" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1061,15 +1226,6 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1079,9 +1235,6 @@
     <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1091,7 +1244,22 @@
     <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1101,10 +1269,52 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1420,13 +1630,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:I31"/>
+  <dimension ref="B3:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
@@ -1440,7 +1650,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" s="3" customFormat="1">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1661,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>3</v>
@@ -1466,591 +1676,718 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="25" t="s">
+    <row r="4" spans="2:9" ht="165">
+      <c r="B4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>67</v>
+      <c r="C4" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>68</v>
+        <v>85</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="25" t="s">
-        <v>69</v>
+    <row r="5" spans="2:9" ht="82.5">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+    <row r="6" spans="2:9" ht="99">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="E6" s="5" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="30"/>
+    <row r="7" spans="2:9" ht="99">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="24" t="s">
+        <v>103</v>
+      </c>
       <c r="E7" s="5" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="33">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="24" t="s">
+        <v>101</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>71</v>
+        <v>85</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="2:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+    <row r="9" spans="2:9" ht="33">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" ht="49.5">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="2:9" ht="66">
+      <c r="B11" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="2:9" ht="33">
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="2:9" ht="132">
+      <c r="B13" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="2:9" ht="33">
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="2:9" ht="66">
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="2:9" ht="181.5">
+      <c r="B17" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="2:9" ht="33">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="2:9" ht="66">
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="2:9" ht="49.5">
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="2:9" ht="99">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="2:9" ht="33">
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="2:9" ht="33">
+      <c r="B23" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="2:9" ht="148.5">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="2:9" ht="49.5">
+      <c r="B25" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="42"/>
+    </row>
+    <row r="26" spans="2:9" ht="99" customHeight="1">
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="H26" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="42"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+    </row>
+    <row r="29" spans="2:9" ht="82.5">
+      <c r="B29" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="H29" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="36"/>
+    </row>
+    <row r="30" spans="2:9" ht="115.5">
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="36"/>
+    </row>
+    <row r="31" spans="2:9" ht="49.5">
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="2:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="19" t="s">
+      <c r="G31" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="H31" s="38"/>
+      <c r="I31" s="36"/>
+    </row>
+    <row r="32" spans="2:9" ht="99">
+      <c r="B32" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="39"/>
+    </row>
+    <row r="33" spans="2:9" ht="82.5">
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="2:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="16" t="s">
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+    </row>
+    <row r="34" spans="2:9" ht="49.5">
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+    </row>
+    <row r="35" spans="2:9" ht="82.5">
+      <c r="B35" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="17" t="s">
+      <c r="C35" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="55"/>
-    </row>
-    <row r="19" spans="2:9" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" s="55"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-    </row>
-    <row r="22" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="45"/>
-    </row>
-    <row r="23" spans="2:9" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="45"/>
-    </row>
-    <row r="24" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="45"/>
-    </row>
-    <row r="25" spans="2:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="B25" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="51"/>
-    </row>
-    <row r="26" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-    </row>
-    <row r="27" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-    </row>
-    <row r="28" spans="2:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B28" s="31" t="s">
+      <c r="F35" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="28"/>
+    </row>
+    <row r="36" spans="2:9" ht="99">
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="33" t="s">
+      <c r="E36" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F36" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G36" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="34" t="s">
+      <c r="H36" s="25"/>
+      <c r="I36" s="28"/>
+    </row>
+    <row r="37" spans="2:9" ht="99">
+      <c r="B37" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="35"/>
-    </row>
-    <row r="29" spans="2:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="33" t="s">
+      <c r="C37" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="38" spans="2:9" ht="66">
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="35"/>
-    </row>
-    <row r="30" spans="2:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="B30" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="37" t="s">
+      <c r="F38" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="39" t="s">
+      <c r="G38" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I30" s="40"/>
-    </row>
-    <row r="31" spans="2:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="37"/>
-      <c r="I31" s="40"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
+  <mergeCells count="24">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
